--- a/11 Login details/Default.xlsx
+++ b/11 Login details/Default.xlsx
@@ -183,10 +183,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="283845"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
